--- a/Road Map.xlsx
+++ b/Road Map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\OOP Summers\OOP Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\OOPSummers\OOP Project\OOP-Project-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,9 +71,6 @@
     <t>submission</t>
   </si>
   <si>
-    <t xml:space="preserve">Contributions </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mahad </t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Asad </t>
+  </si>
+  <si>
+    <t>Team Members</t>
   </si>
 </sst>
 </file>
@@ -127,15 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -145,6 +139,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +429,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,106 +439,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>43532</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>40337</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>43655</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>43685</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
